--- a/7/1/1/6/1/PIB regional 2008 a 2021 - Anual.xlsx
+++ b/7/1/1/6/1/PIB regional 2008 a 2021 - Anual.xlsx
@@ -1286,6 +1286,60 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
+      <c r="B14">
+        <v>1465</v>
+      </c>
+      <c r="C14">
+        <v>5300</v>
+      </c>
+      <c r="D14">
+        <v>21390</v>
+      </c>
+      <c r="E14">
+        <v>4919</v>
+      </c>
+      <c r="F14">
+        <v>6128</v>
+      </c>
+      <c r="G14">
+        <v>16229</v>
+      </c>
+      <c r="H14">
+        <v>79425</v>
+      </c>
+      <c r="I14">
+        <v>9694</v>
+      </c>
+      <c r="J14">
+        <v>7041</v>
+      </c>
+      <c r="K14">
+        <v>14650</v>
+      </c>
+      <c r="L14">
+        <v>5265</v>
+      </c>
+      <c r="M14">
+        <v>2575</v>
+      </c>
+      <c r="N14">
+        <v>6791</v>
+      </c>
+      <c r="O14">
+        <v>1068</v>
+      </c>
+      <c r="P14">
+        <v>1954</v>
+      </c>
+      <c r="Q14">
+        <v>183894</v>
+      </c>
+      <c r="R14">
+        <v>112</v>
+      </c>
+      <c r="S14">
+        <v>16507</v>
+      </c>
       <c r="T14">
         <v>200512</v>
       </c>
